--- a/biology/Zoologie/Ara_(genre)/Ara_(genre).xlsx
+++ b/biology/Zoologie/Ara_(genre)/Ara_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ara regroupe les membres les plus grands de la famille des psittacidés. Tous les oiseaux dont le nom vernaculaire comporte le terme ara ne sont pas membres de ce genre. Les membres de ce genre portent un plumage vivement coloré, généralement à dominante rouge ou verte, une longue queue pointue et un bec puissant. Ils vivent en Amérique tropicale.
-Ce genre comporte des espèces de perroquets de taille comprise entre 30 et 90 cm[1].
+Ce genre comporte des espèces de perroquets de taille comprise entre 30 et 90 cm.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Liste d'espèces existantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
-Espèces encore vivantes
-Ara ararauna – Ara bleu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ara_(genre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ara_(genre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces existantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces encore vivantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ara ararauna – Ara bleu
 Ara glaucogularis – Ara canindé
 Ara militaris – Ara militaire
 Ara ambiguus – Ara de Buffon
@@ -526,9 +575,43 @@
 Ara severus – Ara vert
 Anodorhynchus hyacinthinus – Ara hyacinthe
 Cyanopsitta spixii -Ara de spix
-Diopsittaca nobilis -Ara noble
-Espèces disparues
-†Ara tricolor – Ara tricolore
+Diopsittaca nobilis -Ara noble</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ara_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ara_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces existantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces disparues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">†Ara tricolor – Ara tricolore
 †Ara guadeloupensis
 †Ara.erythrocephala
 †Ara atwoodi
@@ -538,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ara_(genre)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ara_(genre)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Portraits et répartitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
